--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4706B3D1-7A56-4018-B828-33381E192A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57042A2-6590-4C48-A9EF-2757A7320BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -129,10 +129,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://www.gov.kr/portal/main</t>
-  </si>
-  <si>
-    <t>govkr_Credential</t>
+    <t>https://www.gov.kr/</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -522,7 +519,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -602,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
